--- a/team#33-Agriculture_and_Rural_Development/X_train.xlsx
+++ b/team#33-Agriculture_and_Rural_Development/X_train.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="19890" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>temp(in C)</t>
   </si>
@@ -93,41 +93,23 @@
   <si>
     <t>Dec</t>
   </si>
-  <si>
-    <t>Uttar Pradesh</t>
-  </si>
-  <si>
-    <t>West Bengal</t>
-  </si>
-  <si>
-    <t>Punjab</t>
-  </si>
-  <si>
-    <t>Madhya Pradesh</t>
-  </si>
-  <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
-    <t>Kerala</t>
-  </si>
-  <si>
-    <t>Gujarat</t>
-  </si>
-  <si>
-    <t>ASSAM &amp; MEGHALAYA</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,19 +117,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -170,9 +489,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -180,11 +741,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -467,19 +1080,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="2:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +1191,7 @@
         <v>0.286</v>
       </c>
       <c r="F2">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="G2">
         <v>389.407</v>
@@ -600,10 +1215,10 @@
         <v>16.77</v>
       </c>
       <c r="N2">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
+        <v>8.28</v>
+      </c>
+      <c r="O2">
+        <v>8</v>
       </c>
       <c r="P2">
         <v>-218.4</v>
@@ -624,7 +1239,7 @@
         <v>-53</v>
       </c>
       <c r="V2">
-        <v>69.19999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="W2">
         <v>18.5</v>
@@ -685,11 +1300,11 @@
       <c r="N3">
         <v>16.56</v>
       </c>
-      <c r="O3" t="s">
-        <v>26</v>
+      <c r="O3">
+        <v>8</v>
       </c>
       <c r="P3">
-        <v>-68.40000000000001</v>
+        <v>-68.4</v>
       </c>
       <c r="Q3">
         <v>-42.8</v>
@@ -768,8 +1383,8 @@
       <c r="N4">
         <v>6.21</v>
       </c>
-      <c r="O4" t="s">
-        <v>26</v>
+      <c r="O4">
+        <v>8</v>
       </c>
       <c r="P4">
         <v>-43.4</v>
@@ -851,8 +1466,8 @@
       <c r="N5">
         <v>14.49</v>
       </c>
-      <c r="O5" t="s">
-        <v>26</v>
+      <c r="O5">
+        <v>8</v>
       </c>
       <c r="P5">
         <v>-208.4</v>
@@ -873,7 +1488,7 @@
         <v>-48</v>
       </c>
       <c r="V5">
-        <v>74.19999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="W5">
         <v>23.5</v>
@@ -908,7 +1523,7 @@
         <v>0.286</v>
       </c>
       <c r="F6">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="G6">
         <v>389.407</v>
@@ -932,10 +1547,10 @@
         <v>16.77</v>
       </c>
       <c r="N6">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="O6" t="s">
-        <v>27</v>
+        <v>8.28</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
       </c>
       <c r="P6">
         <v>-237.2</v>
@@ -953,7 +1568,7 @@
         <v>-85.5</v>
       </c>
       <c r="U6">
-        <v>-2.900000000000006</v>
+        <v>-2.90000000000001</v>
       </c>
       <c r="V6">
         <v>106.5</v>
@@ -1017,8 +1632,8 @@
       <c r="N7">
         <v>16.56</v>
       </c>
-      <c r="O7" t="s">
-        <v>27</v>
+      <c r="O7">
+        <v>8</v>
       </c>
       <c r="P7">
         <v>-337.2</v>
@@ -1036,7 +1651,7 @@
         <v>-135.5</v>
       </c>
       <c r="U7">
-        <v>-52.90000000000001</v>
+        <v>-52.9</v>
       </c>
       <c r="V7">
         <v>56.5</v>
@@ -1095,13 +1710,13 @@
         <v>10.58</v>
       </c>
       <c r="M8">
-        <v>8.130000000000001</v>
+        <v>8.13</v>
       </c>
       <c r="N8">
         <v>11.73</v>
       </c>
-      <c r="O8" t="s">
-        <v>27</v>
+      <c r="O8">
+        <v>8</v>
       </c>
       <c r="P8">
         <v>-387.2</v>
@@ -1119,7 +1734,7 @@
         <v>-160.5</v>
       </c>
       <c r="U8">
-        <v>-77.90000000000001</v>
+        <v>-77.9</v>
       </c>
       <c r="V8">
         <v>31.5</v>
@@ -1183,8 +1798,8 @@
       <c r="N9">
         <v>11.73</v>
       </c>
-      <c r="O9" t="s">
-        <v>27</v>
+      <c r="O9">
+        <v>8</v>
       </c>
       <c r="P9">
         <v>-387.2</v>
@@ -1202,7 +1817,7 @@
         <v>-160.5</v>
       </c>
       <c r="U9">
-        <v>-77.90000000000001</v>
+        <v>-77.9</v>
       </c>
       <c r="V9">
         <v>31.5</v>
@@ -1240,7 +1855,7 @@
         <v>0.286</v>
       </c>
       <c r="F10">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="G10">
         <v>389.407</v>
@@ -1264,10 +1879,10 @@
         <v>16.77</v>
       </c>
       <c r="N10">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="O10" t="s">
-        <v>28</v>
+        <v>8.28</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
       </c>
       <c r="P10">
         <v>-232.3</v>
@@ -1288,10 +1903,10 @@
         <v>-76.7</v>
       </c>
       <c r="V10">
-        <v>5.199999999999989</v>
+        <v>5.19999999999999</v>
       </c>
       <c r="W10">
-        <v>-36.40000000000001</v>
+        <v>-36.4</v>
       </c>
       <c r="X10">
         <v>-55.8</v>
@@ -1349,8 +1964,8 @@
       <c r="N11">
         <v>16.56</v>
       </c>
-      <c r="O11" t="s">
-        <v>28</v>
+      <c r="O11">
+        <v>6</v>
       </c>
       <c r="P11">
         <v>-82.3</v>
@@ -1368,13 +1983,13 @@
         <v>-33.3</v>
       </c>
       <c r="U11">
-        <v>-1.700000000000003</v>
+        <v>-1.7</v>
       </c>
       <c r="V11">
-        <v>80.19999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="W11">
-        <v>38.59999999999999</v>
+        <v>38.6</v>
       </c>
       <c r="X11">
         <v>19.2</v>
@@ -1432,14 +2047,14 @@
       <c r="N12">
         <v>17.25</v>
       </c>
-      <c r="O12" t="s">
-        <v>28</v>
+      <c r="O12">
+        <v>6</v>
       </c>
       <c r="P12">
         <v>-62.3</v>
       </c>
       <c r="Q12">
-        <v>-8.699999999999999</v>
+        <v>-8.7</v>
       </c>
       <c r="R12">
         <v>28.5</v>
@@ -1451,13 +2066,13 @@
         <v>-23.3</v>
       </c>
       <c r="U12">
-        <v>8.299999999999997</v>
+        <v>8.3</v>
       </c>
       <c r="V12">
-        <v>90.19999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="W12">
-        <v>48.59999999999999</v>
+        <v>48.6</v>
       </c>
       <c r="X12">
         <v>29.2</v>
@@ -1515,8 +2130,8 @@
       <c r="N13">
         <v>14.49</v>
       </c>
-      <c r="O13" t="s">
-        <v>28</v>
+      <c r="O13">
+        <v>6</v>
       </c>
       <c r="P13">
         <v>-222.3</v>
@@ -1537,10 +2152,10 @@
         <v>-71.7</v>
       </c>
       <c r="V13">
-        <v>10.19999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="W13">
-        <v>-31.40000000000001</v>
+        <v>-31.4</v>
       </c>
       <c r="X13">
         <v>-50.8</v>
@@ -1598,17 +2213,17 @@
       <c r="N14">
         <v>16.56</v>
       </c>
-      <c r="O14" t="s">
-        <v>29</v>
+      <c r="O14">
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>-98.59999999999999</v>
+        <v>-98.6</v>
       </c>
       <c r="Q14">
         <v>-49.2</v>
       </c>
       <c r="R14">
-        <v>-8.799999999999997</v>
+        <v>-8.8</v>
       </c>
       <c r="S14">
         <v>-40.4</v>
@@ -1626,10 +2241,10 @@
         <v>17.2</v>
       </c>
       <c r="X14">
-        <v>96.59999999999999</v>
+        <v>96.6</v>
       </c>
       <c r="Y14">
-        <v>-1.700000000000003</v>
+        <v>-1.7</v>
       </c>
       <c r="Z14">
         <v>-33.8</v>
@@ -1681,8 +2296,8 @@
       <c r="N15">
         <v>13.11</v>
       </c>
-      <c r="O15" t="s">
-        <v>29</v>
+      <c r="O15">
+        <v>7</v>
       </c>
       <c r="P15">
         <v>-178.6</v>
@@ -1694,10 +2309,10 @@
         <v>-48.8</v>
       </c>
       <c r="S15">
-        <v>-80.40000000000001</v>
+        <v>-80.4</v>
       </c>
       <c r="T15">
-        <v>-65.59999999999999</v>
+        <v>-65.6</v>
       </c>
       <c r="U15">
         <v>87</v>
@@ -1709,7 +2324,7 @@
         <v>-22.8</v>
       </c>
       <c r="X15">
-        <v>56.59999999999999</v>
+        <v>56.6</v>
       </c>
       <c r="Y15">
         <v>-41.7</v>
@@ -1718,7 +2333,7 @@
         <v>-73.8</v>
       </c>
       <c r="AA15">
-        <v>-89.90000000000001</v>
+        <v>-89.9</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -1764,17 +2379,17 @@
       <c r="N16">
         <v>20.01</v>
       </c>
-      <c r="O16" t="s">
-        <v>29</v>
+      <c r="O16">
+        <v>5</v>
       </c>
       <c r="P16">
-        <v>-83.59999999999999</v>
+        <v>-83.6</v>
       </c>
       <c r="Q16">
         <v>-41.7</v>
       </c>
       <c r="R16">
-        <v>-1.299999999999997</v>
+        <v>-1.3</v>
       </c>
       <c r="S16">
         <v>-32.9</v>
@@ -1795,7 +2410,7 @@
         <v>104.1</v>
       </c>
       <c r="Y16">
-        <v>5.799999999999997</v>
+        <v>5.8</v>
       </c>
       <c r="Z16">
         <v>-26.3</v>
@@ -1847,17 +2462,17 @@
       <c r="N17">
         <v>6.21</v>
       </c>
-      <c r="O17" t="s">
-        <v>29</v>
+      <c r="O17">
+        <v>5</v>
       </c>
       <c r="P17">
-        <v>-73.59999999999999</v>
+        <v>-73.6</v>
       </c>
       <c r="Q17">
         <v>-36.7</v>
       </c>
       <c r="R17">
-        <v>3.700000000000003</v>
+        <v>3.7</v>
       </c>
       <c r="S17">
         <v>-27.9</v>
@@ -1930,8 +2545,8 @@
       <c r="N18">
         <v>21.39</v>
       </c>
-      <c r="O18" t="s">
-        <v>29</v>
+      <c r="O18">
+        <v>5</v>
       </c>
       <c r="P18">
         <v>-168.6</v>
@@ -1943,7 +2558,7 @@
         <v>-43.8</v>
       </c>
       <c r="S18">
-        <v>-75.40000000000001</v>
+        <v>-75.4</v>
       </c>
       <c r="T18">
         <v>-60.6</v>
@@ -1958,7 +2573,7 @@
         <v>-17.8</v>
       </c>
       <c r="X18">
-        <v>61.59999999999999</v>
+        <v>61.6</v>
       </c>
       <c r="Y18">
         <v>-36.7</v>
@@ -1967,7 +2582,7 @@
         <v>-68.8</v>
       </c>
       <c r="AA18">
-        <v>-84.90000000000001</v>
+        <v>-84.9</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -2008,13 +2623,13 @@
         <v>10.58</v>
       </c>
       <c r="M19">
-        <v>8.130000000000001</v>
+        <v>8.13</v>
       </c>
       <c r="N19">
         <v>11.73</v>
       </c>
-      <c r="O19" t="s">
-        <v>29</v>
+      <c r="O19">
+        <v>7</v>
       </c>
       <c r="P19">
         <v>-398.6</v>
@@ -2041,7 +2656,7 @@
         <v>-132.8</v>
       </c>
       <c r="X19">
-        <v>-53.40000000000001</v>
+        <v>-53.4</v>
       </c>
       <c r="Y19">
         <v>-151.7</v>
@@ -2096,8 +2711,8 @@
       <c r="N20">
         <v>13.11</v>
       </c>
-      <c r="O20" t="s">
-        <v>30</v>
+      <c r="O20">
+        <v>7</v>
       </c>
       <c r="P20">
         <v>-178.3</v>
@@ -2106,7 +2721,7 @@
         <v>-89.8</v>
       </c>
       <c r="R20">
-        <v>-65.59999999999999</v>
+        <v>-65.6</v>
       </c>
       <c r="S20">
         <v>-9.5</v>
@@ -2121,19 +2736,19 @@
         <v>22</v>
       </c>
       <c r="W20">
-        <v>46.59999999999999</v>
+        <v>46.6</v>
       </c>
       <c r="X20">
         <v>74.5</v>
       </c>
       <c r="Y20">
-        <v>16.09999999999999</v>
+        <v>16.1</v>
       </c>
       <c r="Z20">
-        <v>48.09999999999999</v>
+        <v>48.1</v>
       </c>
       <c r="AA20">
-        <v>-85.59999999999999</v>
+        <v>-85.6</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -2179,8 +2794,8 @@
       <c r="N21">
         <v>15.18</v>
       </c>
-      <c r="O21" t="s">
-        <v>30</v>
+      <c r="O21">
+        <v>3</v>
       </c>
       <c r="P21">
         <v>-98.3</v>
@@ -2204,16 +2819,16 @@
         <v>62</v>
       </c>
       <c r="W21">
-        <v>86.59999999999999</v>
+        <v>86.6</v>
       </c>
       <c r="X21">
         <v>114.5</v>
       </c>
       <c r="Y21">
-        <v>56.09999999999999</v>
+        <v>56.1</v>
       </c>
       <c r="Z21">
-        <v>88.09999999999999</v>
+        <v>88.1</v>
       </c>
       <c r="AA21">
         <v>-45.6</v>
@@ -2262,8 +2877,8 @@
       <c r="N22">
         <v>21.39</v>
       </c>
-      <c r="O22" t="s">
-        <v>30</v>
+      <c r="O22">
+        <v>3</v>
       </c>
       <c r="P22">
         <v>-168.3</v>
@@ -2287,19 +2902,19 @@
         <v>27</v>
       </c>
       <c r="W22">
-        <v>51.59999999999999</v>
+        <v>51.6</v>
       </c>
       <c r="X22">
         <v>79.5</v>
       </c>
       <c r="Y22">
-        <v>21.09999999999999</v>
+        <v>21.1</v>
       </c>
       <c r="Z22">
-        <v>53.09999999999999</v>
+        <v>53.1</v>
       </c>
       <c r="AA22">
-        <v>-80.59999999999999</v>
+        <v>-80.6</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -2345,8 +2960,8 @@
       <c r="N23">
         <v>12.42</v>
       </c>
-      <c r="O23" t="s">
-        <v>30</v>
+      <c r="O23">
+        <v>3</v>
       </c>
       <c r="P23">
         <v>-348.3</v>
@@ -2364,22 +2979,22 @@
         <v>-49.7</v>
       </c>
       <c r="U23">
-        <v>43.69999999999999</v>
+        <v>43.7</v>
       </c>
       <c r="V23">
         <v>-63</v>
       </c>
       <c r="W23">
-        <v>-38.40000000000001</v>
+        <v>-38.4</v>
       </c>
       <c r="X23">
         <v>-10.5</v>
       </c>
       <c r="Y23">
-        <v>-68.90000000000001</v>
+        <v>-68.9</v>
       </c>
       <c r="Z23">
-        <v>-36.90000000000001</v>
+        <v>-36.9</v>
       </c>
       <c r="AA23">
         <v>-170.6</v>
@@ -2426,10 +3041,10 @@
         <v>4.12</v>
       </c>
       <c r="N24">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="O24" t="s">
-        <v>30</v>
+        <v>8.97</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
       </c>
       <c r="P24">
         <v>-348.3</v>
@@ -2447,22 +3062,22 @@
         <v>-49.7</v>
       </c>
       <c r="U24">
-        <v>43.69999999999999</v>
+        <v>43.7</v>
       </c>
       <c r="V24">
         <v>-63</v>
       </c>
       <c r="W24">
-        <v>-38.40000000000001</v>
+        <v>-38.4</v>
       </c>
       <c r="X24">
         <v>-10.5</v>
       </c>
       <c r="Y24">
-        <v>-68.90000000000001</v>
+        <v>-68.9</v>
       </c>
       <c r="Z24">
-        <v>-36.90000000000001</v>
+        <v>-36.9</v>
       </c>
       <c r="AA24">
         <v>-170.6</v>
@@ -2511,17 +3126,17 @@
       <c r="N25">
         <v>15.18</v>
       </c>
-      <c r="O25" t="s">
-        <v>31</v>
+      <c r="O25">
+        <v>4</v>
       </c>
       <c r="P25">
-        <v>-96.90000000000001</v>
+        <v>-96.9</v>
       </c>
       <c r="Q25">
         <v>-44.2</v>
       </c>
       <c r="R25">
-        <v>0.1000000000000014</v>
+        <v>0.100000000000001</v>
       </c>
       <c r="S25">
         <v>164.1</v>
@@ -2548,7 +3163,7 @@
         <v>173.6</v>
       </c>
       <c r="AA25">
-        <v>29.40000000000001</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -2594,8 +3209,8 @@
       <c r="N26">
         <v>12.42</v>
       </c>
-      <c r="O26" t="s">
-        <v>31</v>
+      <c r="O26">
+        <v>4</v>
       </c>
       <c r="P26">
         <v>-346.9</v>
@@ -2607,10 +3222,10 @@
         <v>-124.9</v>
       </c>
       <c r="S26">
-        <v>39.09999999999999</v>
+        <v>39.1</v>
       </c>
       <c r="T26">
-        <v>26.80000000000001</v>
+        <v>26.8</v>
       </c>
       <c r="U26">
         <v>388.6</v>
@@ -2619,7 +3234,7 @@
         <v>231</v>
       </c>
       <c r="W26">
-        <v>77.19999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="X26">
         <v>117.9</v>
@@ -2628,10 +3243,10 @@
         <v>133.1</v>
       </c>
       <c r="Z26">
-        <v>48.59999999999999</v>
+        <v>48.6</v>
       </c>
       <c r="AA26">
-        <v>-95.59999999999999</v>
+        <v>-95.6</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -2675,10 +3290,10 @@
         <v>3.24</v>
       </c>
       <c r="N27">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="O27" t="s">
-        <v>31</v>
+        <v>8.28</v>
+      </c>
+      <c r="O27">
+        <v>4</v>
       </c>
       <c r="P27">
         <v>-396.9</v>
@@ -2690,10 +3305,10 @@
         <v>-149.9</v>
       </c>
       <c r="S27">
-        <v>14.09999999999999</v>
+        <v>14.1</v>
       </c>
       <c r="T27">
-        <v>1.800000000000011</v>
+        <v>1.80000000000001</v>
       </c>
       <c r="U27">
         <v>363.6</v>
@@ -2702,16 +3317,16 @@
         <v>206</v>
       </c>
       <c r="W27">
-        <v>52.19999999999999</v>
+        <v>52.2</v>
       </c>
       <c r="X27">
-        <v>92.89999999999998</v>
+        <v>92.9</v>
       </c>
       <c r="Y27">
         <v>108.1</v>
       </c>
       <c r="Z27">
-        <v>23.59999999999999</v>
+        <v>23.6</v>
       </c>
       <c r="AA27">
         <v>-120.6</v>
@@ -2758,10 +3373,10 @@
         <v>4.12</v>
       </c>
       <c r="N28">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="O28" t="s">
-        <v>31</v>
+        <v>8.97</v>
+      </c>
+      <c r="O28">
+        <v>4</v>
       </c>
       <c r="P28">
         <v>-346.9</v>
@@ -2773,10 +3388,10 @@
         <v>-124.9</v>
       </c>
       <c r="S28">
-        <v>39.09999999999999</v>
+        <v>39.1</v>
       </c>
       <c r="T28">
-        <v>26.80000000000001</v>
+        <v>26.8</v>
       </c>
       <c r="U28">
         <v>388.6</v>
@@ -2785,7 +3400,7 @@
         <v>231</v>
       </c>
       <c r="W28">
-        <v>77.19999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="X28">
         <v>117.9</v>
@@ -2794,10 +3409,10 @@
         <v>133.1</v>
       </c>
       <c r="Z28">
-        <v>48.59999999999999</v>
+        <v>48.6</v>
       </c>
       <c r="AA28">
-        <v>-95.59999999999999</v>
+        <v>-95.6</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -2843,8 +3458,8 @@
       <c r="N29">
         <v>5.52</v>
       </c>
-      <c r="O29" t="s">
-        <v>31</v>
+      <c r="O29">
+        <v>4</v>
       </c>
       <c r="P29">
         <v>-496.9</v>
@@ -2856,10 +3471,10 @@
         <v>-199.9</v>
       </c>
       <c r="S29">
-        <v>-35.90000000000001</v>
+        <v>-35.9</v>
       </c>
       <c r="T29">
-        <v>-48.19999999999999</v>
+        <v>-48.2</v>
       </c>
       <c r="U29">
         <v>313.6</v>
@@ -2868,16 +3483,16 @@
         <v>156</v>
       </c>
       <c r="W29">
-        <v>2.199999999999989</v>
+        <v>2.19999999999999</v>
       </c>
       <c r="X29">
-        <v>42.89999999999998</v>
+        <v>42.9</v>
       </c>
       <c r="Y29">
-        <v>58.10000000000002</v>
+        <v>58.1</v>
       </c>
       <c r="Z29">
-        <v>-26.40000000000001</v>
+        <v>-26.4</v>
       </c>
       <c r="AA29">
         <v>-170.6</v>
@@ -2926,8 +3541,8 @@
       <c r="N30">
         <v>17.25</v>
       </c>
-      <c r="O30" t="s">
-        <v>32</v>
+      <c r="O30">
+        <v>2</v>
       </c>
       <c r="P30">
         <v>-78.2</v>
@@ -2951,10 +3566,10 @@
         <v>314.7</v>
       </c>
       <c r="W30">
-        <v>-2.600000000000001</v>
+        <v>-2.6</v>
       </c>
       <c r="X30">
-        <v>53.40000000000001</v>
+        <v>53.4</v>
       </c>
       <c r="Y30">
         <v>-37.8</v>
@@ -3009,8 +3624,8 @@
       <c r="N31">
         <v>5.52</v>
       </c>
-      <c r="O31" t="s">
-        <v>32</v>
+      <c r="O31">
+        <v>2</v>
       </c>
       <c r="P31">
         <v>-125.2</v>
@@ -3037,7 +3652,7 @@
         <v>-26.1</v>
       </c>
       <c r="X31">
-        <v>29.90000000000001</v>
+        <v>29.9</v>
       </c>
       <c r="Y31">
         <v>-61.3</v>
@@ -3092,8 +3707,8 @@
       <c r="N32">
         <v>21.39</v>
       </c>
-      <c r="O32" t="s">
-        <v>32</v>
+      <c r="O32">
+        <v>2</v>
       </c>
       <c r="P32">
         <v>-168.2</v>
@@ -3102,13 +3717,13 @@
         <v>-85</v>
       </c>
       <c r="R32">
-        <v>-78.90000000000001</v>
+        <v>-78.9</v>
       </c>
       <c r="S32">
         <v>-79.5</v>
       </c>
       <c r="T32">
-        <v>-84.09999999999999</v>
+        <v>-84.1</v>
       </c>
       <c r="U32">
         <v>35.7</v>
@@ -3120,7 +3735,7 @@
         <v>-47.6</v>
       </c>
       <c r="X32">
-        <v>8.400000000000006</v>
+        <v>8.40000000000001</v>
       </c>
       <c r="Y32">
         <v>-82.8</v>
@@ -3175,8 +3790,8 @@
       <c r="N33">
         <v>16.56</v>
       </c>
-      <c r="O33" t="s">
-        <v>33</v>
+      <c r="O33">
+        <v>1</v>
       </c>
       <c r="P33">
         <v>-336.6</v>
@@ -3188,7 +3803,7 @@
         <v>-137.5</v>
       </c>
       <c r="S33">
-        <v>75.90000000000001</v>
+        <v>75.9</v>
       </c>
       <c r="T33">
         <v>157.5</v>
@@ -3253,13 +3868,13 @@
         <v>10.58</v>
       </c>
       <c r="M34">
-        <v>8.130000000000001</v>
+        <v>8.13</v>
       </c>
       <c r="N34">
         <v>11.73</v>
       </c>
-      <c r="O34" t="s">
-        <v>33</v>
+      <c r="O34">
+        <v>1</v>
       </c>
       <c r="P34">
         <v>-386.6</v>
@@ -3271,7 +3886,7 @@
         <v>-162.5</v>
       </c>
       <c r="S34">
-        <v>50.90000000000001</v>
+        <v>50.9</v>
       </c>
       <c r="T34">
         <v>132.5</v>
@@ -3286,7 +3901,7 @@
         <v>390.9</v>
       </c>
       <c r="X34">
-        <v>79.89999999999998</v>
+        <v>79.9</v>
       </c>
       <c r="Y34">
         <v>-137.4</v>
@@ -3341,8 +3956,8 @@
       <c r="N35">
         <v>11.73</v>
       </c>
-      <c r="O35" t="s">
-        <v>33</v>
+      <c r="O35">
+        <v>1</v>
       </c>
       <c r="P35">
         <v>-386.6</v>
@@ -3354,7 +3969,7 @@
         <v>-162.5</v>
       </c>
       <c r="S35">
-        <v>50.90000000000001</v>
+        <v>50.9</v>
       </c>
       <c r="T35">
         <v>132.5</v>
@@ -3369,7 +3984,7 @@
         <v>390.9</v>
       </c>
       <c r="X35">
-        <v>79.89999999999998</v>
+        <v>79.9</v>
       </c>
       <c r="Y35">
         <v>-137.4</v>
@@ -3383,5 +3998,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>